--- a/public/uploads/jomelee_Merencillo_Logs.xlsx
+++ b/public/uploads/jomelee_Merencillo_Logs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -31,7 +31,7 @@
     <t>Remarks</t>
   </si>
   <si>
-    <t>Wednesday, July 23, 2025 at 8:49 AM</t>
+    <t>Tuesday, September 2, 2025 at 2:40:58 PM</t>
   </si>
   <si>
     <t>jomelee Merencillo</t>
@@ -40,52 +40,31 @@
     <t>Login</t>
   </si>
   <si>
-    <t>Site Visit</t>
+    <t>On Field</t>
   </si>
   <si>
     <t>Sales</t>
   </si>
   <si>
-    <t>Late: 0h 49m 9s</t>
-  </si>
-  <si>
-    <t>Thursday, August 14, 2025 at 10:53 AM</t>
-  </si>
-  <si>
-    <t>HR Attendance</t>
-  </si>
-  <si>
-    <t>Late: 2h 53m 4s</t>
-  </si>
-  <si>
-    <t>Thursday, August 14, 2025 at 10:57 AM</t>
-  </si>
-  <si>
-    <t>Late: 2h 57m 6s</t>
-  </si>
-  <si>
-    <t>Thursday, August 14, 2025 at 10:59 AM</t>
-  </si>
-  <si>
-    <t>Late: 2h 59m 7s</t>
-  </si>
-  <si>
-    <t>Thursday, August 14, 2025 at 1:47 PM</t>
+    <t>Invalid (Needs Verification): 0h 40m 58s</t>
+  </si>
+  <si>
+    <t>Monday, September 8, 2025 at 2:30:38 PM</t>
   </si>
   <si>
     <t>On Site</t>
   </si>
   <si>
-    <t>Late: 5h 47m 18s</t>
-  </si>
-  <si>
-    <t>Monday, August 18, 2025 at 3:55 PM</t>
-  </si>
-  <si>
-    <t>On Field</t>
-  </si>
-  <si>
-    <t>Late: 7h 55m 43s</t>
+    <t>Invalid (Needs Verification): 0h 30m 38s</t>
+  </si>
+  <si>
+    <t>Monday, September 8, 2025 at 2:31:06 PM</t>
+  </si>
+  <si>
+    <t>Logout</t>
+  </si>
+  <si>
+    <t>Undertime: 2h 28m 53s</t>
   </si>
   <si>
     <t/>
@@ -97,13 +76,25 @@
     <t>Total Late</t>
   </si>
   <si>
-    <t>23h 21m 30s</t>
+    <t>0h 0m 0s</t>
   </si>
   <si>
     <t>Total Overtime</t>
   </si>
   <si>
-    <t>0h 0m 0s</t>
+    <t>Total Undertime</t>
+  </si>
+  <si>
+    <t>2h 28m 53s</t>
+  </si>
+  <si>
+    <t>Total Halfday</t>
+  </si>
+  <si>
+    <t>Total Invalid (Needs Verification)</t>
+  </si>
+  <si>
+    <t>1h 11m 37s</t>
   </si>
 </sst>
 </file>
@@ -551,106 +542,79 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>19</v>
       </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="C7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
         <v>23</v>
       </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="C9" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
         <v>25</v>
       </c>
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
+      <c r="C10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
